--- a/SANER2019/DataAnalysis/Book1.xlsx
+++ b/SANER2019/DataAnalysis/Book1.xlsx
@@ -1,22 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mukta\Workspace-2018\QueryReformulation\SANER2019\DataAnalysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7C057E-1048-4134-84C3-AF56D169E2FF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="72" windowWidth="19140" windowHeight="9528" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="72" windowWidth="19140" windowHeight="9528" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet6!$A$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet6!$A$3</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet6!$A$4</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet6!$B$1:$D$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet6!$B$2:$D$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet6!$B$3:$D$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet6!$B$4:$D$4</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>MRR</t>
   </si>
@@ -32,11 +50,23 @@
   <si>
     <t>Zxing</t>
   </si>
+  <si>
+    <t xml:space="preserve">MRR </t>
+  </si>
+  <si>
+    <t>Top-1</t>
+  </si>
+  <si>
+    <t>Top-5</t>
+  </si>
+  <si>
+    <t>Top-10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,14 +108,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -97,14 +130,65 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>MRR</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -112,16 +196,181 @@
           <c:tx>
             <c:v>SWT</c:v>
           </c:tx>
-          <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:val>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8C0-498E-82D7-1099B20DE978}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Zxing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C8C0-498E-82D7-1099B20DE978}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -131,55 +380,208 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="90924928"/>
-        <c:axId val="90926464"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="90924928"/>
+        <c:axId val="386732800"/>
+        <c:axId val="455171432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="386732800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90926464"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455171432"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="90926464"/>
+        <c:axId val="455171432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90924928"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386732800"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -189,9 +591,1363 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-CA"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Top-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Top-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top-10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C738-4821-9C58-C615AC019C9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Top-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Top-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top-10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18.260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55.73</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C738-4821-9C58-C615AC019C9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Top-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Top-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top-10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C738-4821-9C58-C615AC019C9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="540188816"/>
+        <c:axId val="540189144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="540188816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540189144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="540189144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540188816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Top-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Top-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top-10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C27-45BC-8EC8-3B804700CC9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Top-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Top-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top-10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C27-45BC-8EC8-3B804700CC9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Top-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Top-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Top-10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28.43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0C27-45BC-8EC8-3B804700CC9B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="541496728"/>
+        <c:axId val="541495088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="541496728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541495088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="541495088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541496728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>MAP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SWT</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4E5-4954-A146-1A3FE812F0DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Zxing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A4E5-4954-A146-1A3FE812F0DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="454134152"/>
+        <c:axId val="457219008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="454134152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="457219008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="457219008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454134152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -212,22 +1968,38 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SWT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>SWT</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$11</c:f>
+              <c:f>Sheet3!$A$1:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.2</c:v>
                 </c:pt>
@@ -245,68 +2017,80 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$8</c:f>
+              <c:f>Sheet3!$B$1:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.25</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F5F8-49DE-A0EF-75489C317E8A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Zxing</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Zxing</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet2!$A$3:$A$11</c:f>
+              <c:f>Sheet3!$A$1:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.2</c:v>
                 </c:pt>
@@ -324,47 +2108,43 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$8</c:f>
+              <c:f>Sheet3!$C$1:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F5F8-49DE-A0EF-75489C317E8A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -376,21 +2156,68 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106958848"/>
-        <c:axId val="106961152"/>
+        <c:axId val="391750600"/>
+        <c:axId val="391750928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106958848"/>
+        <c:axId val="391750600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106961152"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391750928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -398,31 +2225,104 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106961152"/>
+        <c:axId val="391750928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106958848"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391750600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -431,24 +2331,2876 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9B6605-5AF3-47B2-B51D-37927DF29443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -470,20 +5222,149 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18B56AB-A475-4EA5-9EF3-7E73CB70377B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>300990</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B401F526-5150-460A-8393-DBE536D64B95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>148590</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C68A54D3-B19F-4EF4-AB5B-5EAA7137567F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72C8C3C1-F07A-4B76-A436-65CDD126B8AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -544,7 +5425,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -577,9 +5458,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -612,6 +5510,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -787,11 +5702,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,21 +5781,6 @@
       </c>
       <c r="C6">
         <v>0.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.3">
@@ -895,105 +5795,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F356A60-3F45-4868-AF35-7056B8115D0E}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>0.2</v>
+      </c>
+      <c r="C1">
+        <v>0.3</v>
+      </c>
+      <c r="D1">
+        <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.2</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>16.13</v>
+      </c>
+      <c r="C2">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="D2">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.56000000000000005</v>
+        <v>40.4</v>
       </c>
       <c r="C3">
-        <v>0.46</v>
+        <v>42.83</v>
+      </c>
+      <c r="D3">
+        <v>45.32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0.3</v>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.55000000000000004</v>
+        <v>52.99</v>
       </c>
       <c r="C4">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0.4</v>
-      </c>
-      <c r="B5">
-        <v>0.54</v>
-      </c>
-      <c r="C5">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0.5</v>
-      </c>
-      <c r="B6">
-        <v>0.52</v>
-      </c>
-      <c r="C6">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0.6</v>
-      </c>
-      <c r="B7">
-        <v>0.39</v>
-      </c>
-      <c r="C7">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0.7</v>
-      </c>
-      <c r="B8">
-        <v>0.25</v>
-      </c>
-      <c r="C8">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
+        <v>55.73</v>
+      </c>
+      <c r="D4">
+        <v>57.28</v>
       </c>
     </row>
   </sheetData>
@@ -1003,7 +5864,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF0A82-3F61-4AAC-B344-43DE20C2A319}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>0.2</v>
+      </c>
+      <c r="C1">
+        <v>0.3</v>
+      </c>
+      <c r="D1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>26.72</v>
+      </c>
+      <c r="C2">
+        <v>28.06</v>
+      </c>
+      <c r="D2">
+        <v>28.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>51.94</v>
+      </c>
+      <c r="C3">
+        <v>53.35</v>
+      </c>
+      <c r="D3">
+        <v>53.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>62.43</v>
+      </c>
+      <c r="C4">
+        <v>63.24</v>
+      </c>
+      <c r="D4">
+        <v>64.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A449C92-474F-4552-BD2A-B2F23F9A0C01}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1012,4 +5942,185 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C3">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C4">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>0.54</v>
+      </c>
+      <c r="C5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>0.52</v>
+      </c>
+      <c r="C6">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <v>0.39</v>
+      </c>
+      <c r="C7">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+      <c r="C8">
+        <v>0.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0.2</v>
+      </c>
+      <c r="B1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C1">
+        <v>0.49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.3</v>
+      </c>
+      <c r="B2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C2">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.4</v>
+      </c>
+      <c r="B3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C3">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>0.53</v>
+      </c>
+      <c r="C4">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.6</v>
+      </c>
+      <c r="B5">
+        <v>0.4</v>
+      </c>
+      <c r="C5">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.7</v>
+      </c>
+      <c r="B6">
+        <v>0.26</v>
+      </c>
+      <c r="C6">
+        <v>0.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>